--- a/Design/Chassis Design/PartList.xlsx
+++ b/Design/Chassis Design/PartList.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
